--- a/학습자료/단답형/영어_복습_부정사 전치사 구분.xlsx
+++ b/학습자료/단답형/영어_복습_부정사 전치사 구분.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>구분</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +493,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +515,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +537,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +559,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -551,6 +581,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -568,6 +603,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -585,6 +625,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -602,6 +647,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -619,6 +669,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -636,6 +691,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -653,6 +713,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -670,6 +735,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -687,6 +757,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -704,6 +779,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -721,6 +801,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -738,6 +823,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -755,6 +845,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -772,6 +867,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -789,6 +889,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -806,6 +911,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -823,6 +933,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -840,6 +955,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -857,6 +977,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -874,6 +999,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -891,6 +1021,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -908,6 +1043,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -925,6 +1065,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -942,6 +1087,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -959,6 +1109,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -976,6 +1131,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -993,6 +1153,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1010,6 +1175,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1027,6 +1197,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1044,6 +1219,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1061,6 +1241,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1078,6 +1263,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1095,6 +1285,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1112,6 +1307,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1129,6 +1329,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1146,6 +1351,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1163,6 +1373,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1180,6 +1395,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1197,6 +1417,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1214,6 +1439,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1231,6 +1461,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1248,6 +1483,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1265,6 +1505,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1282,6 +1527,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1299,6 +1549,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1316,6 +1571,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1333,6 +1593,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1350,6 +1615,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1367,6 +1637,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1384,6 +1659,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1401,6 +1681,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1418,6 +1703,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1435,6 +1725,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1452,6 +1747,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1469,6 +1769,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1486,6 +1791,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1503,6 +1813,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1520,6 +1835,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1537,6 +1857,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1554,6 +1879,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1571,6 +1901,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1588,6 +1923,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1605,6 +1945,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1622,6 +1967,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1639,6 +1989,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1656,6 +2011,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1673,6 +2033,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1690,6 +2055,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1707,6 +2077,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1724,6 +2099,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1741,6 +2121,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1758,6 +2143,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1775,6 +2165,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1792,6 +2187,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1809,6 +2209,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1826,6 +2231,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1843,6 +2253,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1860,6 +2275,11 @@
           <t>부정사 전치사 구분</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1875,6 +2295,33 @@
       <c r="C85" t="inlineStr">
         <is>
           <t>부정사 전치사 구분</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>look forward to 동명사 : ~하는 것을 기대하다</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>부정사 전치사 구분</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>이전</t>
         </is>
       </c>
     </row>
